--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-episode-of-care.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-03T11:24:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -784,7 +784,13 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-patient-enrollment-type</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type of the episode of care.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/episodeofcare-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1302,7 +1308,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.5546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.08203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4375,11 +4381,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4412,21 +4420,21 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4452,10 +4460,10 @@
         <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4506,7 +4514,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4532,10 +4540,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4641,10 +4649,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4752,10 +4760,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4865,10 +4873,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4891,13 +4899,13 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4948,7 +4956,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4963,21 +4971,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5003,10 +5011,10 @@
         <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5036,10 +5044,10 @@
         <v>110</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5057,7 +5065,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5083,10 +5091,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5109,13 +5117,13 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5166,7 +5174,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5192,10 +5200,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5218,13 +5226,13 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5275,7 +5283,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5290,21 +5298,21 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5312,7 +5320,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -5330,10 +5338,10 @@
         <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5384,7 +5392,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5399,7 +5407,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -5410,10 +5418,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5439,10 +5447,10 @@
         <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5493,7 +5501,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5508,21 +5516,21 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5545,13 +5553,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5602,7 +5610,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5617,7 +5625,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -5628,10 +5636,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5654,13 +5662,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5711,7 +5719,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5726,7 +5734,7 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -5737,14 +5745,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5763,13 +5771,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5820,7 +5828,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5835,7 +5843,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -5846,10 +5854,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5872,16 +5880,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5931,7 +5939,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:24:23+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
